--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2018/10_Artvin_2018.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2018/10_Artvin_2018.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\indirilen_exceller_2018\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2018\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E1AD3F90-F46F-405C-8D4F-4CDC9DE04353}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8BCB9CE5-E61D-48AB-A9A5-45426D77F59F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="664" xr2:uid="{DCAE4A25-62FE-4154-AF73-A4FB2F1A8FD9}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="664" xr2:uid="{C71FBA46-D0DC-47BA-A749-B3CFE833704B}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="91" r:id="rId1"/>
@@ -957,15 +957,15 @@
   <cellStyles count="11">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{D9AAAFE5-A546-4E33-9951-1522ED89E046}"/>
-    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{36964398-77F4-4E29-81E9-AD48CDEC9554}"/>
-    <cellStyle name="Normal 3" xfId="4" xr:uid="{F5D72C52-2F5F-4F1B-8648-E8D99E63616D}"/>
-    <cellStyle name="Normal 3 2" xfId="5" xr:uid="{125ABCC4-8FD0-4A87-87B0-F1E6CC123410}"/>
-    <cellStyle name="Normal 4" xfId="6" xr:uid="{AC47A43D-F218-4BD3-B20C-AE649D96D69E}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="7" xr:uid="{3B47927A-AE32-44B4-818D-D5EFC08FF265}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="8" xr:uid="{DF4A3151-0C5A-4766-8928-93E38701F116}"/>
-    <cellStyle name="Not 2" xfId="9" xr:uid="{4E40158F-D753-47B2-8DEE-9E4E5BB3DD05}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="10" xr:uid="{9BFD07AD-098B-4E98-A83C-EFE3A21BF355}"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{74697273-B923-498D-99A7-F9D3EF964F3E}"/>
+    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{9350E931-0DF3-4CB9-B9C8-EE012CA3E2A4}"/>
+    <cellStyle name="Normal 3" xfId="4" xr:uid="{AE830D0A-8031-451D-95CA-E438294651F3}"/>
+    <cellStyle name="Normal 3 2" xfId="5" xr:uid="{BD0D4ACE-73A2-4CD8-8CB1-78A4B02C8FF0}"/>
+    <cellStyle name="Normal 4" xfId="6" xr:uid="{FE75C84D-FA9F-49B0-8D09-C8FB394CF31C}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="7" xr:uid="{36AA47EF-F592-4280-8FBB-E2C08F234318}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="8" xr:uid="{B0B76A44-E60B-4686-A640-DDFED9D10F0D}"/>
+    <cellStyle name="Not 2" xfId="9" xr:uid="{F52BCD20-3C88-4037-AD03-705C36D8B90E}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="10" xr:uid="{C85EF978-A206-4315-90FF-C650C26A3E9F}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1335,7 +1335,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{407230A5-E6C5-439C-AF94-42C8A1E53662}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A6BC1CE-19E1-4949-8DE3-FEA6F52F6505}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -2588,18 +2588,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{5D2080B1-8BAD-41B3-9641-F9436668A004}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{F4CD873D-505B-4628-8AF7-5898022CE078}"/>
-    <hyperlink ref="E4" location="' MART'!A1" display="MART" xr:uid="{530FF5B4-CBAD-421D-AE0A-3EC26518D8CD}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{B561698C-256E-42E5-8437-351B6AACB7B2}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{99B759E5-4C2E-473D-8E40-39F4B9A143BD}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{E5013233-8C8D-470A-82BA-A365CB25DD5D}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{1ABA98D1-7631-462B-93D8-FD51CBA6BB2D}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{C3F62FB2-2D55-47A9-B5BA-14639EF0E459}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{181884E9-2EC2-4FCB-92B7-6E513316FD43}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{47B6CF5D-2524-4680-8760-A72CDD980808}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{CFA0098D-29E7-40F0-BA73-D846C2E94056}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{C7C25A08-4106-47A5-84BF-4545C77AD1A7}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{5BFD1316-3369-487A-ACAC-AB7BA9859926}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{E6AA7855-7648-48AA-886B-89FCDAF91973}"/>
+    <hyperlink ref="E4" location="' MART'!A1" display="MART" xr:uid="{B4B74B32-0C34-4EBA-ACA4-4CFBA38AE11E}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{1BB2743D-23EC-4CD5-9FF3-505C43BADC2A}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{3E6C033F-222A-4827-B72B-A4BCA7B479E8}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{10D7BFA3-1164-473C-ADA2-4BC50D238D16}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{D3D3EA90-C5C2-43FA-8D95-4C1AAAB6206F}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{3244470E-46B6-4905-B111-790C197405FD}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{B07E3BC2-3ADB-4AF1-96EA-B297F3C5F567}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{0497CA80-EB7F-4164-A4DF-1D3D520DD4A9}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{CA2CBEE2-7A73-4DAE-9BCA-54DC82D82A1A}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{BE1C55B3-D940-4501-8DAA-48F112B9A3E8}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -2612,7 +2612,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCFC38E6-1AAC-4CEC-AAF7-75866C4E93CB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{862E3C60-9804-46FB-89D2-A5E17C526EF0}">
   <sheetPr codeName="Sayfa3"/>
   <dimension ref="B2:F100"/>
   <sheetViews>
@@ -3828,18 +3828,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{6B93A79B-4292-4D29-A942-6B91F6019672}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{5A22EBD3-4F8D-4D44-87ED-27E6DE806A41}"/>
-    <hyperlink ref="E4" location="' MART'!A1" display="MART" xr:uid="{146C08EA-914E-4685-B526-20E770391DE3}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{F0B35860-44AC-4D42-8099-0D69FADF0ABD}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{8AE8AF94-ADC1-4CAF-B9AA-556B74A20F44}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{1F262268-7777-46FF-A5FA-DD77281E4F84}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{EB96E716-F006-4B68-97B6-08C46715B8EA}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{4B1EE873-E4B8-4134-B2D2-FA71597E2B6B}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{9A8C5BB6-D16D-4092-A4E3-A70BE040A323}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{436F0C82-B302-4A08-9B1B-938FF702F821}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{47BD51C0-9D84-4F75-9082-5DF8802C957B}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{C6F49542-E15B-4CF6-850B-383DB210EF2A}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{C729A604-B01C-44D0-A96C-80A56B77BF7E}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{670191E1-AB9E-44C7-98AE-721BD12884DB}"/>
+    <hyperlink ref="E4" location="' MART'!A1" display="MART" xr:uid="{7B08F44D-402D-4631-A409-8A597609E770}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{0F19548E-90E9-4C91-A89B-BEC75220B392}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{2A5C75F2-DBAF-4DAF-B694-07B5EFD1039D}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{2051BA0D-BEC2-4DDF-988E-E1DA6EBA43C8}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{8B7D2FA5-5E26-4351-A5BD-319C3C7DE4AA}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{99E35633-686D-4CE3-919F-A00626254A82}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{574A9DEA-0B32-41E0-AD54-FCE8E75B8B5D}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{ED317C22-32F1-45C7-8D40-3FEB95726D1E}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{3BE9B23E-565C-4D81-AE43-750977C9E4D9}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{56FCB5D2-DB97-42E9-9118-E4361749D0EF}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -3852,7 +3852,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80D5018F-5024-46B8-80E8-161451A9D333}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F0B88C6-0BE9-436F-8AA7-1858731477D6}">
   <sheetPr codeName="Sayfa4"/>
   <dimension ref="B2:F100"/>
   <sheetViews>
@@ -5062,18 +5062,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{E1BEDD71-A583-4DDE-8AE2-D2C8AEF29069}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{8EE25E94-B656-465D-83AB-3F3AA45192A5}"/>
-    <hyperlink ref="E4" location="' MART'!A1" display="MART" xr:uid="{E12FA40E-0518-4BF5-965E-2FDB37F0672B}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{09214440-9A39-48DE-83E1-7B554E0871EF}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{AD90BE31-E7AC-47E8-A302-8639FA4538CF}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{5AAEA15C-01A4-4410-86E1-82A963501FA7}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{BA2F4495-81F4-4EE2-ABCB-268546799D72}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{02BDC351-D23F-4C88-8903-1C303F00ED1B}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{4EEE64D7-667C-41F9-87F7-B792431CBEF7}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{CC97BADF-ACEC-4576-B7DE-429C26F89C37}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{1875CA41-7BB4-4AD3-B77B-39C741C461E8}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{D1B5BDE5-7EF3-48D5-8C83-11CCA881AF26}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{005190A5-DDF4-49AF-9C03-0CC79504A6F2}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{4C85C36C-12B8-45FF-A296-D65A1EC06E5E}"/>
+    <hyperlink ref="E4" location="' MART'!A1" display="MART" xr:uid="{32E612B3-546E-4352-9AB7-12FBD1EDCC5E}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{78ED7E07-FF13-4166-95AA-A2844054F385}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{1FF2F0DD-D2A5-4448-886A-C28C02AAE503}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{5161D915-E5CA-46A6-9A76-BFFB974B4FB6}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{626E6603-A69C-492C-86AA-195DFFD7A3AC}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{ACBADB2E-673D-4497-B5B1-DA251AA50EA5}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{EF74EC31-2EEA-4F4B-9F6B-6D8ADE94B6BD}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{4383228B-82E5-43C4-8BED-26C0F6880133}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{FF36EACF-1983-4919-A6E7-EAF1B1406AB1}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{5A5150DC-4484-4364-B0D0-A668A59B0288}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -5086,7 +5086,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49D91F40-4C6D-4760-A211-824D7845FA93}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DDC08C5-D437-444E-BFBF-FD5095BC9413}">
   <sheetPr codeName="Sayfa5"/>
   <dimension ref="B2:F100"/>
   <sheetViews>
@@ -6292,18 +6292,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{9F359D14-26E5-4F5D-AC36-F77F628D97CE}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{F926AA36-20E6-4B63-B3AB-630757BAE835}"/>
-    <hyperlink ref="E4" location="' MART'!A1" display="MART" xr:uid="{43C07CE5-210B-4441-A184-86B1936551DF}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{49308CC0-1E8C-41BF-AED1-0814A4205F56}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{5324D13A-2D0A-49CE-A256-49A051F73255}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{22375DF6-DF5F-402B-9645-933A1300F478}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{578E6465-A980-4DA9-8DFC-66709F92F32F}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{410E2EF6-59C0-4608-91C8-B9DEBB33152C}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{B31AC160-CE08-4677-9718-DDEDE140B8E6}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{BEB6ADDC-6761-4BE1-94EC-31AE2593DF10}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{F127A016-5EEA-4782-A4C9-A88777BEF1A9}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{F0EEA196-64C0-416B-8C4F-DCB043A189E8}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{FFAD1C12-4307-4A13-BA5C-5CFB164A6A8D}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{0156D2A6-53B8-443D-B5CA-DD1918852919}"/>
+    <hyperlink ref="E4" location="' MART'!A1" display="MART" xr:uid="{105E9A18-FA8F-48A8-8CD7-D83FC5A56540}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{6AD901F3-B725-4A0E-BE42-DF9B13FC47C3}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{05691948-EB05-4947-82A4-7F3C77F54074}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{6E4F98DA-5AB8-42E8-B99C-DDA3815CA8B2}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{28DE414B-46F4-4183-B046-79FD8C92C766}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{ADF56E4B-2190-41AE-9AB0-C9A9BB24B829}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{3AB49856-062B-419F-9E43-3D7ADE28BFF8}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{EDC43396-19A1-40B6-99F2-B493A22C4723}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{FC35F010-DA98-4C91-B11E-B7EB79D3EEB2}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{8014C4F5-667D-4BFB-8617-D7B8A7C8A681}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -6316,7 +6316,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{261E2A19-798B-4E84-B501-BFCD755A631C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12127704-3D8A-4F97-9463-5C59EF9C30D0}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -7565,18 +7565,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{413C4A36-FD7C-4200-92A6-E657BF706AC1}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{49AA34B6-970E-492B-95F9-322FA80D5BD6}"/>
-    <hyperlink ref="E4" location="' MART'!A1" display="MART" xr:uid="{EE842959-BBCC-46B7-947C-ED8EFAB39665}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{80C3C2FC-BBC0-4A6D-AA85-67CF3A2A34AA}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{CE04CF7D-2F21-4488-B385-AC0300F24535}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{3FA95C35-A8F5-4273-BED2-6774A23DA33F}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{EB07453A-4D59-4478-A660-96BE942CC104}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{6911D98C-0905-45B8-9E10-4DB9C22CE77D}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{48C17599-C9BD-4CC8-9949-8636BC0660B3}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{733C6A62-1243-4B90-8C6E-E4914DFB2F05}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{ECEA42C1-6225-4C5B-B97C-0023313B3A56}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{8B0D4B98-7280-44F2-AB8E-F9464561CEC6}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{8733286D-8393-4AA3-924F-9F389C77EF98}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{A9655C6E-BE79-44AF-97EF-21EDE0698E38}"/>
+    <hyperlink ref="E4" location="' MART'!A1" display="MART" xr:uid="{3533BB72-AE47-4AC6-906A-216EC546624E}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{D2EBDE8A-71C4-429F-A7C5-561412797A82}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{03865B2E-6C84-4479-AA3B-1E79CFAEAE49}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{4DE14A89-C201-4653-A5AA-2D397DF6F8D6}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{AA5F1325-2BCA-4286-BE8D-B944E2A37B98}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{78F152C7-FC92-4A39-9D81-50F6E1EF863F}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{F5426CC8-3134-4201-9B82-350C8662B19D}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{425C3BEB-650C-4D1D-818B-AE51CB410D45}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{8A77DC73-E9A8-461B-86FC-E27E88EF6851}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{4494E88E-497E-4012-9982-73AB38A5F8F0}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -7589,7 +7589,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83E4A915-F2DB-4709-9EF5-86E76D530BE5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B384CEE-06C9-46A1-AB37-03E055CED5F2}">
   <sheetPr codeName="Sayfa10"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -8835,18 +8835,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{5F4A69EA-167C-418B-9936-8AA50D509C64}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{9AEE9670-B6B5-4488-82A2-B30FE24D6FC9}"/>
-    <hyperlink ref="E4" location="' MART'!A1" display="MART" xr:uid="{7107DB71-CAFC-4CD2-A6CF-1684CE692FFB}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{E4069E64-45E8-4948-AA23-35CE8FDAC52E}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{14583340-87B9-4A60-AE2E-B6437C583758}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{1E28FBFB-78AC-4888-AA79-BA5448C7235D}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{DC50DBE0-02FB-44FF-A89C-4EB00FC01FC8}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{3D2A8172-225B-41C0-AC6D-74E954A6094A}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{CF1BD3F4-875A-4699-A004-9EC36751B8D0}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{ED3ED47F-E60F-42B2-B149-543758B9F76A}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{AFEDF5DA-0E08-4EF2-8540-90BF3CDF15EF}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{57099C8A-DD9A-4B0A-991E-55E81FCD2B81}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{CD9BA006-2322-4A24-B573-CD638A665EB9}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{66F942D2-2B69-480A-B3E5-797116C52ECC}"/>
+    <hyperlink ref="E4" location="' MART'!A1" display="MART" xr:uid="{E9DB0FBE-ACB6-4CB8-9B04-118FD4FF4BC0}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{C606B6CC-9758-4950-8436-5E930B2C3851}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{551EF546-5545-4BD0-9213-91DFB1031C76}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{A69305CF-306F-429A-880B-9A2C95552D0B}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{F4971C46-BBF1-4EB7-88CD-CB535785CE76}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{D602FC30-A311-4E20-B9C7-B7EBD720D691}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{1EF55995-545A-47D7-A57C-5A71C664DDD2}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{864342B2-D030-4DC8-A95D-9D6D7CF4452C}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{975E0D42-2C8A-4337-A872-BAE950A34CCE}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{89778D0E-731F-49E0-A106-A7D69CC31327}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -8859,7 +8859,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E37FBCD7-785C-4F7E-955C-87A23865E682}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C94357F2-B18B-459F-9337-D178253ED183}">
   <sheetPr codeName="Sayfa7"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -10105,18 +10105,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{04973381-4107-4867-9405-377C229BCEF9}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{5E6DFEA7-2655-45CD-BDE9-38E31DF6F40F}"/>
-    <hyperlink ref="E4" location="' MART'!A1" display="MART" xr:uid="{598506F5-2B1D-4C71-8FA3-960D502796D3}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{5532FA7F-3502-4E2E-B694-5F39B562FB5C}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{59F532F2-6A7F-4C24-B2E5-178C8C4BD1F7}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{DA8B8349-1426-4F5C-A34D-EC51D37A0D98}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{E7205E79-18DB-493F-BC83-41485D333A1D}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{C9F15688-410C-4980-B236-202001E4342B}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{96035BED-D7BF-4E9E-9207-59DE91EDEBC4}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{FCD73430-3F2F-4C3E-B962-7D5C01525248}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{31E26A15-1BE8-44BC-B23B-4150E0DF975F}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{790026ED-6B12-4861-9A47-80CABC8918D7}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{10383603-EF62-4611-BC09-A27A5C086AB3}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{89D614F2-49EA-4766-842D-FD6CE2092D07}"/>
+    <hyperlink ref="E4" location="' MART'!A1" display="MART" xr:uid="{7A68B314-6B7B-4F48-B6A6-3E65911568F6}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{C1F56F53-7D8F-4FA0-BD07-058B629D7197}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{E882DF79-907D-4558-BCCE-8B2F866EE4E1}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{612933E8-5196-459B-8625-FAA899705A1E}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{90CD341F-2772-4D7B-87A4-988701043EAF}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{639EE670-1469-45E0-AFF5-2EA83564ED71}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{CDBF4628-92DF-4104-A931-5AE343AA5591}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{20250E1D-4A13-4B66-A9C3-48CEE8E468E6}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{D8B150A0-D982-472D-B7EF-80C65F58D1F5}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{DD6A4D48-964E-448D-9BA0-4B9D2C0D6073}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -10129,7 +10129,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F14BD85-A834-4394-B863-3A4A30F2C4D6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{317DA3A3-01C2-43A3-A928-49B340D51393}">
   <sheetPr codeName="Sayfa8"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -11371,18 +11371,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{3F3C7851-95B2-44E9-9421-C045CF4CBCF1}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{6558ED06-8882-4927-A86B-04BFF1451BFF}"/>
-    <hyperlink ref="E4" location="' MART'!A1" display="MART" xr:uid="{6462060E-E82D-49B9-BAF4-7D2D8D0F5215}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{CE1BF426-9224-4CD6-B5AB-00E1CD80BCF8}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{327ED4DF-7EA0-4BC8-B37A-E133AC74C897}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{7B4C0B1C-196F-44B5-9FDD-E1AAB762BB2E}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{C7A24B87-A1CB-4774-8948-24BF07CA7E55}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{61637825-0C75-4956-AF75-1771B340830D}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{3356C44A-10FA-4EC9-B22C-7D37E003E176}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{1DBBEC30-5ACF-4D62-8A7E-907101DCBF04}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{99C6CCBF-1F00-4C6A-856B-3AC81F76C075}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{A802B3A0-5540-4C7F-A8A2-1B052D7FC1A7}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{0734907B-2E47-4A7C-98B0-7C15533D102A}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{77C2E340-705C-46CA-B329-4CDD3CC80A76}"/>
+    <hyperlink ref="E4" location="' MART'!A1" display="MART" xr:uid="{05F987E2-1195-4C4D-8387-0C6256291BD1}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{F2A7C4F6-55C1-466A-B0EC-42E8C00C264F}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{46A59627-42FA-4912-AC8C-57374CB0DA57}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{915ED4AC-DE29-4A94-B152-8E7AC7420921}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{E27018FF-45AD-47F1-AB24-462A279C271E}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{4B9B893C-E85F-4E9A-8E9C-D3BB3E1B3C68}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{D2FDE11E-53F9-4EC3-B002-992FD34A688B}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{E8747939-CD34-487B-8AAF-AEADB3FCD018}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{512A2DCE-90AC-44C6-B363-43ECAF31B810}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{ECDCD665-6999-4724-BF48-D9FCADA06F79}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -11395,7 +11395,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{499EE60F-753F-4679-8BC4-709330A6B3BB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36671C4F-E707-492E-8DCA-CD5E56B7F072}">
   <sheetPr codeName="Sayfa9"/>
   <dimension ref="B2:F100"/>
   <sheetViews>
@@ -12627,18 +12627,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{6A7A90EC-0CDE-4851-B329-B8ADA512EB24}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{86DEA2DC-4C90-4EED-AF06-D3BBEE73D060}"/>
-    <hyperlink ref="E4" location="' MART'!A1" display="MART" xr:uid="{7D4E7AF6-AB31-4600-A5BC-237F06C4A1A8}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{957E4C96-EA6D-4EF2-8011-9FB82414387B}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{C4FBDD4B-0B32-4A3E-AFDF-A2B3B9C4CBC8}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{21F6D212-8B54-4C1B-B073-1C1D6D5A4A2B}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{551DF91A-D2EC-4EB9-B2D9-190ACFD691AF}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{DEA8D5DB-8690-4DD9-A9E5-2662B24CC6BD}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{4BD73F28-24A0-4D3C-9BD3-B551973603B0}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{4355D334-948C-4EE3-A1E2-A602B1ADA904}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{EDE5945C-051E-4375-A967-3744D4789002}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{C05FFD9F-5D32-4F44-AEFB-C80F55BDB5DC}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{3F5B97F6-B533-4D12-AD45-D32E2571EB97}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{1D852D0E-1F24-4498-BB3A-98B3D4C599DB}"/>
+    <hyperlink ref="E4" location="' MART'!A1" display="MART" xr:uid="{4F2D606C-5EFD-4843-A1F5-4B2FF28D8721}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{473F521C-7B2C-411D-8B69-8C8E016B85D2}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{30C85145-1593-40DC-A7CB-3F718285408A}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{30928DDC-33DA-4A5D-9DCB-47F1280A47D7}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{DE65B875-FE7B-47F7-ACF1-D560656ABC55}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{8354ECC7-63E4-4183-B515-7C932CE6F7D6}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{489B1345-64CD-400F-96C9-568E13C6A3F4}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{6A7E4EEB-AABC-4ACE-BD4A-434679E3B4E8}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{28DE7EF4-AA76-4F92-A074-B3C8EDFCDF18}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{D8EF4A72-375A-434B-AE48-C0ADB6D2E10E}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -12651,7 +12651,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F99D90A9-F164-44B7-B4E0-C197095F3D74}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{916314B4-5302-436A-A4E0-CDCD7D486B54}">
   <sheetPr codeName="Sayfa6"/>
   <dimension ref="B2:F100"/>
   <sheetViews>
@@ -13881,18 +13881,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{F758E438-37A9-49D8-AA1A-FA9906205D10}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{E25145C1-7E23-4A61-9D14-FFBC6A38A5D3}"/>
-    <hyperlink ref="E4" location="' MART'!A1" display="MART" xr:uid="{06B763EA-3D53-463D-B3B2-EB287A808322}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{775FA895-3565-4A8B-8CEB-2DEAAF319AD6}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{29AFF366-7466-41FD-A5BD-9FB8FC3145F5}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{B90D7B58-6D65-4DEF-BF76-801BE27032AF}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{00369884-B6CF-4598-A81C-FE2D7FB3213C}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{3A2971A4-5AF9-415E-8064-85FACDFD13C5}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{736DFBE8-19D3-4E8E-8773-EA6D66886BE0}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{F1BAAB41-145C-4675-AB9C-4DB3FC48C3EE}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{1ED03E0D-98FD-482B-9293-06A96F67D6AA}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{3FF681AA-8F30-45AB-8B90-0E4CDF717AC9}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{26487433-F388-464A-B8CE-57ED363C4D54}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{00A50AFF-2391-435E-898A-D0A155048991}"/>
+    <hyperlink ref="E4" location="' MART'!A1" display="MART" xr:uid="{47E1F220-7F41-4ECA-B1EE-276A3A1BDEB6}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{13021CF6-DC9F-4B3C-BEC9-AB5ADECD8F33}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{2711BD9F-6246-4E41-9870-35266316E354}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{84FCC166-B8AC-4000-B330-2A80F34E154F}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{52D775D3-961B-4D6B-95EB-EBB8EAE3C460}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{203FF35B-D3D5-44C6-A0AA-2DFDD7CFD96B}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{E3230447-450B-47EB-BBDB-25649439ED06}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{0D2F957A-4A74-476F-A109-639187AB40ED}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{2EC23DE8-D09B-4FF9-8D6B-BF85CADA1BF6}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{1A8D4A19-5374-4809-AD68-EF2254C1C9FA}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -13905,7 +13905,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB4CB449-997D-47B9-9EF7-D39CBB4D15E3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DA5B384-FF7F-44A3-9CFB-4F57DE4FEC39}">
   <sheetPr codeName="Sayfa1"/>
   <dimension ref="B2:F100"/>
   <sheetViews>
@@ -15133,18 +15133,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{0F41505E-7954-4509-AEE6-570CA66634AA}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{8E555418-AC1E-4D9C-964A-7C3AC195225E}"/>
-    <hyperlink ref="E4" location="' MART'!A1" display="MART" xr:uid="{D930BE96-1DAA-4835-8F48-829F38000196}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{B1E18BC2-3D15-4FE8-978D-D8ADC8DBD209}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{1F8CE023-FB0F-495B-9181-25C4B2E9F2A8}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{9670BB70-958A-4FF1-A091-3594832851AC}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{DBA1F064-A06D-4869-A39B-F04CA4C245C0}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{001DF852-3F2D-47DC-B59D-E36D4E20A469}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{0926B5A6-F03F-481F-82EC-E3C3928E80CF}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{F792636F-250B-443C-992F-812F8184E22C}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{654C20D0-A614-4555-A580-4B4114C87149}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{D6D1186E-5577-45F1-BFC7-CA28A94FB3BE}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{05B3F9C3-83B6-45C7-8227-37649A71FD86}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{6D2CAE6F-11A4-41F6-B535-4E98E2F1A50A}"/>
+    <hyperlink ref="E4" location="' MART'!A1" display="MART" xr:uid="{CF4F6ACA-5B68-40AB-B23B-F26A1FF6A8E5}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{B0E406CA-0E41-4AF3-A464-A5961687B646}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{0658E2AF-4408-4D15-BCE4-550315885C2E}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{E5DA45AC-20DD-40D4-B65F-C5D42A38E9EE}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{FDF73EA9-0484-4459-9C6F-955B655960F8}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{28D91334-9C26-4149-9E47-76E9684F758F}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{2571D39F-1178-4A20-B344-8774380D27A3}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{1992607E-CD36-48F5-A622-AA15214A2117}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{DAF87D71-2560-4990-A4A1-F9384EED3EA4}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{B0B33153-ECBD-407E-AC5A-C17B8E9D6303}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -15157,7 +15157,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26C01023-4A7B-4613-B0E4-3D88A30EB06B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0E0AEF6-59C9-4834-89E6-9E1F46D43309}">
   <sheetPr codeName="Sayfa2"/>
   <dimension ref="B2:F100"/>
   <sheetViews>
@@ -16377,18 +16377,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{9BEA8719-78EB-4C4D-9F49-382127C73098}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{6034EF85-D54D-4E28-AEF7-ED74013E4140}"/>
-    <hyperlink ref="E4" location="' MART'!A1" display="MART" xr:uid="{0D8EED76-83CC-4517-9EFA-1DA6AB55748D}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{C52F46BF-023F-4307-9CB5-AB87407908AD}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{09B05181-B85E-4213-8B4B-7A72363B2EB6}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{DAB7B14B-933A-414C-AA87-92C6E90EC717}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{B8E7C1DB-EF1C-4514-8E2B-E216AAE7EFC4}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{453736CB-F2D7-4A30-AB94-233082D6DFC1}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{84304D5C-B45E-490F-92CC-E62972782EB8}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{3C574A4B-33E6-4638-9C51-AB7C69BA266D}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{78364E5A-BBB5-4BAA-9FE5-BD71E7C3BC86}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{F2A68A66-482B-46DB-86C2-8FC64D52A66B}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{C2B3A5FA-3E6F-4509-8870-72C121B49460}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{DF483786-BBFB-49C6-BFE8-F048CC36F20F}"/>
+    <hyperlink ref="E4" location="' MART'!A1" display="MART" xr:uid="{CB08C394-6120-43B7-A2AA-9415F1EB94E8}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{877AE2C9-274E-4B2F-836D-B27174E03EB9}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{6AB8FAB2-9552-468A-9A27-8D9F55DAA423}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{7644F50D-1DD5-4E3B-857A-E75820AE2AEC}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{DA0CC3C3-BCDF-4A38-90F4-6A97BE11A55D}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{6BA8E241-362F-42A4-9109-C5853D005504}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{722457C9-522E-4CD7-99BE-D8D408B4FF6D}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{43A19998-3348-4DB5-B6E4-A55B744BC51E}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{BF3FDC22-4FCF-40FD-9BE5-2E67362C8AFB}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{A78327C8-9740-4322-AA97-15FEF06D050E}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
